--- a/data/n2v/tables/model-1-1325-20230829-50.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-50.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
